--- a/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,25; 2,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,02%</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,0; 0,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,0; 0,08</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,33; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,47; 2,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,15; 1,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,3; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,16; 1,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,26; 1,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,21; 1,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,26; 2,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,27; 1,53</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1391,17 +1391,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1429,47 +1429,47 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,05</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,83</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,36</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,47</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 5,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,8</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,8</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,4; 2,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1511,47 +1511,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,18; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,47 +1579,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,5; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,17; 1,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,2; 2,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,3; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 0,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,17; 1,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,1; 1,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,47; 2,0</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,17; 1,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,37 +1719,37 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,27; 1,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,31; 2,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
+          <t>0,14; 1,25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,3</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,29; 1,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,42; 1,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,23; 1,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,36; 1,18</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,19; 0,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,04; 0,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,27; 0,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,33; 0,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 0,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,08; 0,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,26; 0,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,29; 0,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,42; 0,86</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,31; 0,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 1,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,52</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,6</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,33</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,46</t>
+          <t>0,13; 2,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,94</t>
+          <t>0,21; 1,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,53</t>
+          <t>0,28; 1,55</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,42</t>
+          <t>0,48; 3,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,77</t>
+          <t>0,2; 1,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,0</t>
+          <t>0,4; 1,83</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,51</t>
+          <t>0,15; 1,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,41</t>
+          <t>0,28; 1,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,18</t>
+          <t>0,27; 1,04</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,92</t>
+          <t>0,25; 0,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,69</t>
+          <t>0,24; 0,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,67</t>
+          <t>0,28; 0,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,98</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +745,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +765,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,51</t>
+          <t>0,25; 2,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,95</t>
+          <t>0,2; 1,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,7 +875,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +910,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,08</t>
+          <t>0,0; 0,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1010,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,03</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,29; 2,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,25</t>
+          <t>0,47; 2,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,55</t>
+          <t>0,15; 1,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,52</t>
+          <t>0,0; 0,45</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1170,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1185,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,02</t>
+          <t>0,13; 1,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,12 +1300,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,12 +1320,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,97</t>
+          <t>0,21; 1,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,17</t>
+          <t>0,27; 2,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,55</t>
+          <t>0,25; 1,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,23</t>
+          <t>0,78; 5,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,82</t>
+          <t>0,55; 2,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,12</t>
+          <t>0,17; 2,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,38</t>
+          <t>0,36; 3,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,17</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,58</t>
+          <t>0,2; 1,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,91</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,27</t>
+          <t>0,17; 1,16</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,1</t>
+          <t>0,1; 1,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,83</t>
+          <t>0,4; 1,87</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,74</t>
+          <t>0,18; 1,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,55</t>
+          <t>0,17; 1,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,24</t>
+          <t>0,16; 1,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,14</t>
+          <t>0,34; 2,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,25</t>
+          <t>0,14; 1,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,38</t>
+          <t>0,32; 1,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,55</t>
+          <t>0,42; 1,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,07</t>
+          <t>0,22; 1,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,04</t>
+          <t>0,27; 1,06</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,68</t>
+          <t>0,15; 0,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,02</t>
+          <t>0,34; 0,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,4</t>
+          <t>0,03; 0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,88</t>
+          <t>0,24; 0,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,87</t>
+          <t>0,28; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,93</t>
+          <t>0,36; 0,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,52</t>
+          <t>0,07; 0,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,63</t>
+          <t>0,22; 0,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,68</t>
+          <t>0,29; 0,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,86</t>
+          <t>0,43; 0,85</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,34</t>
+          <t>0,08; 0,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,62</t>
+          <t>0,28; 0,61</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por selladores, aplicación de fluor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5792</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5935</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7214</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1844</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8086</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6622</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1038</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>978; 9297</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>993; 9522</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7266</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1341</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2037</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5812</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2616</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1929</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6161</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 875</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6077</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5748</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6826</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>989; 9584</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4580</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1671</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5722</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>969; 7916</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8122</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3130</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5765</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2904; 13107</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>917; 9188</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3291</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4649</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12402</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1861</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5425</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1528</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5163</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>865; 13067</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1704</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2778</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2691</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5696</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2082</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3682</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6495</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1824</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>433; 4002</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>914; 7509</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2034</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>922; 5310</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6058</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4777</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7291</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6138</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2069; 14885</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3454</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6652</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2828; 13694</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1960</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9943</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7426</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5742</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5933</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13169</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4476</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>958; 13066</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2194</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2164; 19498</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>928; 8289</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5744</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10029</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1659; 12819</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>979; 9059</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1998; 13951</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>966; 10030</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5713; 26747</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5531</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>9196</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7075</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>9813</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>960; 9030</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1095; 9707</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1992</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1451; 11404</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2024; 13256</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>967; 9164</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2222; 9604</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4658; 17913</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2986; 13505</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2042</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4413; 17032</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>18832</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13529</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23177</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>36875</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>28514</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3726; 15823</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>9985; 28863</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>915; 9708</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>7900; 28637</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>7794; 24415</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>11232; 30227</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2128; 12298</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7857; 21978</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14889; 34083</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>25791; 51555</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>4368; 19251</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>19151; 42190</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>